--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4600,12 +4600,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18760,22 +18760,22 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -18788,12 +18788,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18808,22 +18808,22 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F385" t="n">
@@ -18836,12 +18836,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -18391,7 +18391,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Dirección General de Aeronautica Civil</t>
+          <t>Dirección General de Aeronáutica Civil</t>
         </is>
       </c>
       <c r="F376" t="n">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4600,12 +4600,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18760,22 +18760,22 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -18788,12 +18788,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18808,22 +18808,22 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F385" t="n">
@@ -18836,12 +18836,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18856,22 +18856,22 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F386" t="n">
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,22 +18904,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18856,22 +18856,22 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F386" t="n">
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,22 +18904,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conexión Vial Ruta 78 hasta Ruta 68</t>
+          <t>Obras de Urbanización Condominio El Golf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Conexión Vial Ruta 78-68 S.A.</t>
+          <t>CONSTRUCCIONES Y PROYECTOS LOS MAITENES S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>259000</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155147128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154980205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Obras de Urbanización Condominio El Golf</t>
+          <t>Conexión Vial Ruta 78 hasta Ruta 68</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CONSTRUCCIONES Y PROYECTOS LOS MAITENES S.A</t>
+          <t>Sociedad Concesionaria Conexión Vial Ruta 78-68 S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>259000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/02/2022</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154980205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155147128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18904,22 +18904,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,22 +18952,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18904,22 +18904,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,22 +18952,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18904,22 +18904,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,22 +18952,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18904,22 +18904,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,22 +18952,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18904,22 +18904,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,22 +18952,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18904,22 +18904,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,22 +18952,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centro Logístico Vespucio</t>
+          <t>Conexión Vial Ruta 78 hasta Ruta 68</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inversiones Quildos Limitada</t>
+          <t>Sociedad Concesionaria Conexión Vial Ruta 78-68 S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18950</v>
+        <v>259000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155132866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155147128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Obras de Urbanización Condominio El Golf</t>
+          <t>Centro Logístico Vespucio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CONSTRUCCIONES Y PROYECTOS LOS MAITENES S.A</t>
+          <t>Inversiones Quildos Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>18950</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154980205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155132866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conexión Vial Ruta 78 hasta Ruta 68</t>
+          <t>Obras de Urbanización Condominio El Golf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Conexión Vial Ruta 78-68 S.A.</t>
+          <t>CONSTRUCCIONES Y PROYECTOS LOS MAITENES S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>259000</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -548,12 +548,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155147128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154980205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18904,22 +18904,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,22 +18952,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/04/2021</t>
+          <t>18/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,7 +16855,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F344" t="n">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19000,22 +19000,22 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,22 +19048,22 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,7 +16855,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19000,22 +19000,22 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,22 +19048,22 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reubicación Pila N°3</t>
+          <t>Centro Logístico Laguna Sur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nueva Pudahuel S.A.</t>
+          <t>BODEGAS SAN FRANCISCO LIMITADA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5500</v>
+        <v>33000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155604412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155638947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centro Logístico Laguna Sur</t>
+          <t>Reubicación Pila N°3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BODEGAS SAN FRANCISCO LIMITADA</t>
+          <t>Nueva Pudahuel S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>33000</v>
+        <v>5500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>19/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155638947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155604412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,7 +16855,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F344" t="n">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19000,22 +19000,22 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,22 +19048,22 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centro Logístico Laguna Sur</t>
+          <t>Reubicación Pila N°3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BODEGAS SAN FRANCISCO LIMITADA</t>
+          <t>Nueva Pudahuel S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>33000</v>
+        <v>5500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>25/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155638947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155604412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reubicación Pila N°3</t>
+          <t>Centro Logístico Laguna Sur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nueva Pudahuel S.A.</t>
+          <t>BODEGAS SAN FRANCISCO LIMITADA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5500</v>
+        <v>33000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155604412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155638947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4196,7 +4196,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,7 +16855,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F344" t="n">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19000,22 +19000,22 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,22 +19048,22 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19048,22 +19048,22 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,22 +19096,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F345" t="n">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19048,22 +19048,22 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,22 +19096,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>08/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/04/2021</t>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F345" t="n">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19048,22 +19048,22 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,22 +19096,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16903,11 +16903,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16951,7 +16951,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -19096,22 +19096,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,22 +19144,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16903,11 +16903,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16951,7 +16951,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -19096,22 +19096,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,22 +19144,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/10/2022</t>
+          <t>24/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16903,11 +16903,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16951,7 +16951,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -19096,22 +19096,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,22 +19144,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -19096,22 +19096,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,22 +19144,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.775989</v>
+        <v>17760</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -19096,22 +19096,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,22 +19144,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -19144,22 +19144,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,22 +19192,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -19144,22 +19144,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,22 +19192,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>09/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,7 +15367,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -19192,22 +19192,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,7 +15367,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -19192,22 +19192,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -21127,7 +21127,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F433" t="n">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Miguel Irarrázaval E</t>
+          <t>Revesol SpA</t>
         </is>
       </c>
       <c r="F177" t="n">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,7 +15367,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -19192,22 +19192,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/12/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,7 +15367,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -19192,22 +19192,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19495,7 +19495,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F399" t="n">
@@ -21223,7 +21223,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -16999,11 +16999,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -16999,11 +16999,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>28/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE TELECOMUNACIONES S.A.</t>
+          <t>Equinix Chile SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FMC Corporation Chile Ltda.</t>
+          <t>DDW LATAM LIMITADA</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19240,22 +19240,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17/04/2021</t>
+          <t>18/04/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,22 +19336,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,22 +19336,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/04/2023</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agua de Las Lilas S.A.</t>
+          <t>Aguas de Las Lilas S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,22 +19336,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/04/2021</t>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,22 +19336,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,22 +19336,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19288,22 +19288,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,22 +19336,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -19336,22 +19336,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19384,22 +19384,22 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F397" t="n">
@@ -19412,12 +19412,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -21271,7 +21271,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F436" t="n">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
+          <t>Bodega de almacenamiento de inflamables</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Siegwerk Chile S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>55500</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Bodega de almacenamiento de inflamables</t>
+          <t>Segunda Línea Oleoducto Maipú-Aeropuerto AMB</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Siegwerk Chile S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8170472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>319</v>
+        <v>1232</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>READECUACIÓN DEL DEPÓSITO Y TERMINAL DE BUSES EL SAUCE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1232</v>
+        <v>319</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>INSUBAN Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento del Sistema de Manejo de Residuos Industriales Líquidos. Instalación de planta DAF</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INSUBAN Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5478888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Americana de Multiservicios Ltda</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1750</v>
+        <v>25400</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CENTRO DE DISTRIBUCIÓN - CAM (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Compañía Americana de Multiservicios Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>25400</v>
+        <v>1750</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3154431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
+          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Cynthia De La Fuente Guerrero</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>450</v>
+        <v>60000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Concesión Acceso Vial Aeropuerto Arturo Merino Benitez (e-seia)</t>
+          <t>PLANTA REACONDICIONADORA DE TAMBORES METALICOS, PLASTICOS Y ESTANQUES (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cynthia De La Fuente Guerrero</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>60000</v>
+        <v>450</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2812406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -19336,22 +19336,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Plan Regulador Comunal de Pudahuel</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>Ilustre Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19384,22 +19384,22 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pudahuel</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pudahuel</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F397" t="n">
@@ -19412,12 +19412,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Planta Solar Santa Teresita II SpA.</t>
         </is>
       </c>
       <c r="F18" t="n">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Planta Solar Santa Teresita II SpA.</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F18" t="n">

--- a/data/Pudahuel.xlsx
+++ b/data/Pudahuel.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Planta Solar Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F18" t="n">
